--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91635\Desktop\armember-testing\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177C875-8BCA-4586-83A6-3A6302F22A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -55,43 +61,48 @@
     <t>Register a new user</t>
   </si>
   <si>
+    <t>Register with existing username</t>
+  </si>
+  <si>
+    <t>signup with free plan</t>
+  </si>
+  <si>
+    <t>edit the first and last name</t>
+  </si>
+  <si>
+    <t>change password to username</t>
+  </si>
+  <si>
     <t>Case is passed, and displayed error message is The password you entered is invalid.
-Remaining Login Attempts : 2</t>
-  </si>
-  <si>
-    <t>Case is passed, and displayed error message is No such user exists in the system.
-Remaining Login Attempts : 2</t>
-  </si>
-  <si>
-    <t>Case is passed, login and user redirect success fully</t>
-  </si>
-  <si>
-    <t>User register properly and user redirected to set urlhttp://localhost/test_lite1/edit_profile/</t>
+Remaining Login Attempts : 4</t>
+  </si>
+  <si>
+    <t>sign up the user armeber1222 with free plan and but not redirected properly</t>
+  </si>
+  <si>
+    <t>the user details are not updated</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>2024-05-28 23:44:15</t>
-  </si>
-  <si>
-    <t>2024-05-28 23:44:29</t>
-  </si>
-  <si>
-    <t>2024-05-28 23:44:50</t>
-  </si>
-  <si>
-    <t>2024-05-28 23:46:12</t>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>2024-05-30 23:50:42</t>
+  </si>
+  <si>
+    <t>2024-05-31 22:45:47</t>
+  </si>
+  <si>
+    <t>2024-05-31 23:09:43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +165,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -232,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -266,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,14 +462,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="94.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,72 +503,95 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>45454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
